--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,27 +567,27 @@
         <v>0.143837</v>
       </c>
       <c r="O2">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2143804981894445</v>
+        <v>0.4270113790927778</v>
       </c>
       <c r="R2">
-        <v>1.929424483705</v>
+        <v>3.843102411835</v>
       </c>
       <c r="S2">
-        <v>0.06470245907576018</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="T2">
-        <v>0.06470245907576018</v>
+        <v>0.1245005002255258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>1.354768</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01371066666666667</v>
+        <v>0.04794566666666666</v>
       </c>
       <c r="N3">
-        <v>0.041132</v>
+        <v>0.143837</v>
       </c>
       <c r="O3">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.06130480093111113</v>
+        <v>0.02165175164622222</v>
       </c>
       <c r="R3">
-        <v>0.55174320838</v>
+        <v>0.194865764816</v>
       </c>
       <c r="S3">
-        <v>0.0185024823008278</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="T3">
-        <v>0.0185024823008278</v>
+        <v>0.006312838586270617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4515893333333334</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H4">
-        <v>1.354768</v>
+        <v>23.344952</v>
       </c>
       <c r="I4">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J4">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,27 +691,27 @@
         <v>0.143837</v>
       </c>
       <c r="O4">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.02165175164622223</v>
+        <v>0.3730964289804444</v>
       </c>
       <c r="R4">
-        <v>0.194865764816</v>
+        <v>3.357867860824</v>
       </c>
       <c r="S4">
-        <v>0.006534743536094619</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="T4">
-        <v>0.00653474353609462</v>
+        <v>0.1087809232135948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4515893333333334</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H5">
-        <v>1.354768</v>
+        <v>11.677702</v>
       </c>
       <c r="I5">
-        <v>0.008403435674603098</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J5">
-        <v>0.008403435674603098</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01371066666666667</v>
+        <v>0.04794566666666666</v>
       </c>
       <c r="N5">
-        <v>0.041132</v>
+        <v>0.143837</v>
       </c>
       <c r="O5">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.006191590819555557</v>
+        <v>0.1866317358415555</v>
       </c>
       <c r="R5">
-        <v>0.05572431737600001</v>
+        <v>1.679685622574</v>
       </c>
       <c r="S5">
-        <v>0.001868692138508478</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="T5">
-        <v>0.001868692138508478</v>
+        <v>0.05441481329981927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.212987666666667</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H6">
-        <v>18.638963</v>
+        <v>130.486774</v>
       </c>
       <c r="I6">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J6">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.143837</v>
       </c>
       <c r="O6">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.2978858356701111</v>
+        <v>2.085425123537555</v>
       </c>
       <c r="R6">
-        <v>2.680972521031</v>
+        <v>18.768826111838</v>
       </c>
       <c r="S6">
-        <v>0.08990531440346744</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="T6">
-        <v>0.08990531440346744</v>
+        <v>0.6080317382054886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.212987666666667</v>
+        <v>7.007517</v>
       </c>
       <c r="H7">
-        <v>18.638963</v>
+        <v>21.022551</v>
       </c>
       <c r="I7">
-        <v>0.1156148703038507</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J7">
-        <v>0.1156148703038507</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,400 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01371066666666667</v>
+        <v>0.04794566666666666</v>
       </c>
       <c r="N7">
-        <v>0.041132</v>
+        <v>0.143837</v>
       </c>
       <c r="O7">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.08518420290177779</v>
+        <v>0.335980074243</v>
       </c>
       <c r="R7">
-        <v>0.7666578261160001</v>
+        <v>3.023820668187</v>
       </c>
       <c r="S7">
-        <v>0.02570955590038323</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="T7">
-        <v>0.02570955590038323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.879176</v>
-      </c>
-      <c r="H8">
-        <v>11.637528</v>
-      </c>
-      <c r="I8">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="J8">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.143837</v>
-      </c>
-      <c r="O8">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P8">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q8">
-        <v>0.1859896794373333</v>
-      </c>
-      <c r="R8">
-        <v>1.673907114936</v>
-      </c>
-      <c r="S8">
-        <v>0.05613378886578376</v>
-      </c>
-      <c r="T8">
-        <v>0.05613378886578377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.879176</v>
-      </c>
-      <c r="H9">
-        <v>11.637528</v>
-      </c>
-      <c r="I9">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="J9">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.041132</v>
-      </c>
-      <c r="O9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q9">
-        <v>0.05318608907733333</v>
-      </c>
-      <c r="R9">
-        <v>0.478674801696</v>
-      </c>
-      <c r="S9">
-        <v>0.01605216323774424</v>
-      </c>
-      <c r="T9">
-        <v>0.01605216323774424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H10">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I10">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J10">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.143837</v>
-      </c>
-      <c r="O10">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P10">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q10">
-        <v>1.546229067171889</v>
-      </c>
-      <c r="R10">
-        <v>13.916061604547</v>
-      </c>
-      <c r="S10">
-        <v>0.4666694208912233</v>
-      </c>
-      <c r="T10">
-        <v>0.4666694208912233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H11">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I11">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J11">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.041132</v>
-      </c>
-      <c r="O11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P11">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q11">
-        <v>0.4421636574102223</v>
-      </c>
-      <c r="R11">
-        <v>3.979472916692</v>
-      </c>
-      <c r="S11">
-        <v>0.1334499928397964</v>
-      </c>
-      <c r="T11">
-        <v>0.1334499928397964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H12">
-        <v>19.421911</v>
-      </c>
-      <c r="I12">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J12">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.143837</v>
-      </c>
-      <c r="O12">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P12">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q12">
-        <v>0.3103988236118889</v>
-      </c>
-      <c r="R12">
-        <v>2.793589412507</v>
-      </c>
-      <c r="S12">
-        <v>0.09368187569078616</v>
-      </c>
-      <c r="T12">
-        <v>0.09368187569078618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H13">
-        <v>19.421911</v>
-      </c>
-      <c r="I13">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J13">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.041132</v>
-      </c>
-      <c r="O13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P13">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q13">
-        <v>0.08876244925022224</v>
-      </c>
-      <c r="R13">
-        <v>0.7988620432520001</v>
-      </c>
-      <c r="S13">
-        <v>0.02678951111962441</v>
-      </c>
-      <c r="T13">
-        <v>0.02678951111962441</v>
+        <v>0.09795918646930096</v>
       </c>
     </row>
   </sheetData>
